--- a/biology/Histoire de la zoologie et de la botanique/Theodore_Edward_Cantor/Theodore_Edward_Cantor.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Theodore_Edward_Cantor/Theodore_Edward_Cantor.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Theodore Edward (ou Theodor Edvard) Cantor est un médecin et un naturaliste danois, né en 1809 et mort en 1860.
 Il travaille pour la Compagnie anglaise des Indes orientales et constitue d’importantes collections d’histoire naturelle à Penang et à Malacca.
@@ -512,7 +524,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Notes respecting some Indian fishes (1839)
 General features of Chusan (1842)
